--- a/CashFlow/EXPD_cashflow.xlsx
+++ b/CashFlow/EXPD_cashflow.xlsx
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>3483000000.0</v>
+        <v>430495000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>3082000000.0</v>
+        <v>161152000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>2134184000.0</v>
+        <v>8073000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1418084000.0</v>
+        <v>-58787000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>594801000.0</v>
+        <v>-181987000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-183023000.0</v>
